--- a/Results/Results_tables/Supplementary_table9_adult_ataxia_childhood_variants.xlsx
+++ b/Results/Results_tables/Supplementary_table9_adult_ataxia_childhood_variants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z Chen\Documents\PhD Year 3\ataxia_paper\Brain_revision\Supplementary_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2AF782-E1F9-4904-B98B-9AB81882BE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B36C42-C28E-4DE7-A9CA-BD59B18999D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2FF51F44-FF16-4550-8DCD-67096CEFCED5}"/>
   </bookViews>
